--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fat4-Dchs1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fat4-Dchs1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.88470466666667</v>
+        <v>24.00186933333333</v>
       </c>
       <c r="H2">
-        <v>62.654114</v>
+        <v>72.005608</v>
       </c>
       <c r="I2">
-        <v>0.4656575609550316</v>
+        <v>0.4726060410572875</v>
       </c>
       <c r="J2">
-        <v>0.4656575609550317</v>
+        <v>0.4726060410572875</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.616272333333333</v>
+        <v>13.76681233333333</v>
       </c>
       <c r="N2">
-        <v>28.848817</v>
+        <v>41.300437</v>
       </c>
       <c r="O2">
-        <v>0.3773649226058863</v>
+        <v>0.4578167864098003</v>
       </c>
       <c r="P2">
-        <v>0.3773649226058863</v>
+        <v>0.4578167864098004</v>
       </c>
       <c r="Q2">
-        <v>200.8330076759042</v>
+        <v>330.4292307611884</v>
       </c>
       <c r="R2">
-        <v>1807.497069083138</v>
+        <v>2973.863076850696</v>
       </c>
       <c r="S2">
-        <v>0.1757228294506413</v>
+        <v>0.2163669789547055</v>
       </c>
       <c r="T2">
-        <v>0.1757228294506413</v>
+        <v>0.2163669789547056</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.88470466666667</v>
+        <v>24.00186933333333</v>
       </c>
       <c r="H3">
-        <v>62.654114</v>
+        <v>72.005608</v>
       </c>
       <c r="I3">
-        <v>0.4656575609550316</v>
+        <v>0.4726060410572875</v>
       </c>
       <c r="J3">
-        <v>0.4656575609550317</v>
+        <v>0.4726060410572875</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>45.551531</v>
       </c>
       <c r="O3">
-        <v>0.5958493885691962</v>
+        <v>0.5049403118535137</v>
       </c>
       <c r="P3">
-        <v>0.5958493885691962</v>
+        <v>0.5049403118535138</v>
       </c>
       <c r="Q3">
-        <v>317.1100906831704</v>
+        <v>364.4406316650942</v>
       </c>
       <c r="R3">
-        <v>2853.990816148534</v>
+        <v>3279.965684985847</v>
       </c>
       <c r="S3">
-        <v>0.2774617729776788</v>
+        <v>0.2386378417553213</v>
       </c>
       <c r="T3">
-        <v>0.2774617729776789</v>
+        <v>0.2386378417553213</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.88470466666667</v>
+        <v>24.00186933333333</v>
       </c>
       <c r="H4">
-        <v>62.654114</v>
+        <v>72.005608</v>
       </c>
       <c r="I4">
-        <v>0.4656575609550316</v>
+        <v>0.4726060410572875</v>
       </c>
       <c r="J4">
-        <v>0.4656575609550317</v>
+        <v>0.4726060410572875</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4707146666666667</v>
+        <v>0.8411156666666667</v>
       </c>
       <c r="N4">
-        <v>1.412144</v>
+        <v>2.523347</v>
       </c>
       <c r="O4">
-        <v>0.01847193981189478</v>
+        <v>0.02797138961354841</v>
       </c>
       <c r="P4">
-        <v>0.01847193981189478</v>
+        <v>0.02797138961354842</v>
       </c>
       <c r="Q4">
-        <v>9.830736795601778</v>
+        <v>20.18834832555289</v>
       </c>
       <c r="R4">
-        <v>88.47663116041601</v>
+        <v>181.695134929976</v>
       </c>
       <c r="S4">
-        <v>0.008601598438915068</v>
+        <v>0.01321944770813005</v>
       </c>
       <c r="T4">
-        <v>0.008601598438915069</v>
+        <v>0.01321944770813005</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.88470466666667</v>
+        <v>24.00186933333333</v>
       </c>
       <c r="H5">
-        <v>62.654114</v>
+        <v>72.005608</v>
       </c>
       <c r="I5">
-        <v>0.4656575609550316</v>
+        <v>0.4726060410572875</v>
       </c>
       <c r="J5">
-        <v>0.4656575609550317</v>
+        <v>0.4726060410572875</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2118566666666667</v>
+        <v>0.2787996666666667</v>
       </c>
       <c r="N5">
-        <v>0.63557</v>
+        <v>0.8363990000000001</v>
       </c>
       <c r="O5">
-        <v>0.008313749013022724</v>
+        <v>0.009271512123137357</v>
       </c>
       <c r="P5">
-        <v>0.008313749013022724</v>
+        <v>0.009271512123137357</v>
       </c>
       <c r="Q5">
-        <v>4.424563914997778</v>
+        <v>6.691713169510223</v>
       </c>
       <c r="R5">
-        <v>39.82107523498</v>
+        <v>60.225418525592</v>
       </c>
       <c r="S5">
-        <v>0.003871360087796463</v>
+        <v>0.004381772639130593</v>
       </c>
       <c r="T5">
-        <v>0.003871360087796464</v>
+        <v>0.004381772639130592</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>64.957491</v>
       </c>
       <c r="I6">
-        <v>0.4827767068068095</v>
+        <v>0.4263459959747078</v>
       </c>
       <c r="J6">
-        <v>0.4827767068068096</v>
+        <v>0.4263459959747078</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.616272333333333</v>
+        <v>13.76681233333333</v>
       </c>
       <c r="N6">
-        <v>28.848817</v>
+        <v>41.300437</v>
       </c>
       <c r="O6">
-        <v>0.3773649226058863</v>
+        <v>0.4578167864098003</v>
       </c>
       <c r="P6">
-        <v>0.3773649226058863</v>
+        <v>0.4578167864098004</v>
       </c>
       <c r="Q6">
-        <v>208.216307848683</v>
+        <v>298.085862747063</v>
       </c>
       <c r="R6">
-        <v>1873.946770638147</v>
+        <v>2682.772764723567</v>
       </c>
       <c r="S6">
-        <v>0.1821829946000763</v>
+        <v>0.1951883537758264</v>
       </c>
       <c r="T6">
-        <v>0.1821829946000764</v>
+        <v>0.1951883537758264</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>64.957491</v>
       </c>
       <c r="I7">
-        <v>0.4827767068068095</v>
+        <v>0.4263459959747078</v>
       </c>
       <c r="J7">
-        <v>0.4827767068068096</v>
+        <v>0.4263459959747078</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>45.551531</v>
       </c>
       <c r="O7">
-        <v>0.5958493885691962</v>
+        <v>0.5049403118535137</v>
       </c>
       <c r="P7">
-        <v>0.5958493885691962</v>
+        <v>0.5049403118535138</v>
       </c>
       <c r="Q7">
         <v>328.768129440969</v>
@@ -883,10 +883,10 @@
         <v>2958.913164968721</v>
       </c>
       <c r="S7">
-        <v>0.2876622055662876</v>
+        <v>0.2152792801649659</v>
       </c>
       <c r="T7">
-        <v>0.2876622055662876</v>
+        <v>0.2152792801649659</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>64.957491</v>
       </c>
       <c r="I8">
-        <v>0.4827767068068095</v>
+        <v>0.4263459959747078</v>
       </c>
       <c r="J8">
-        <v>0.4827767068068096</v>
+        <v>0.4263459959747078</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4707146666666667</v>
+        <v>0.8411156666666667</v>
       </c>
       <c r="N8">
-        <v>1.412144</v>
+        <v>2.523347</v>
       </c>
       <c r="O8">
-        <v>0.01847193981189478</v>
+        <v>0.02797138961354841</v>
       </c>
       <c r="P8">
-        <v>0.01847193981189478</v>
+        <v>0.02797138961354842</v>
       </c>
       <c r="Q8">
-        <v>10.192147907856</v>
+        <v>18.212254449153</v>
       </c>
       <c r="R8">
-        <v>91.72933117070401</v>
+        <v>163.910290042377</v>
       </c>
       <c r="S8">
-        <v>0.008917822270720157</v>
+        <v>0.0119254899635849</v>
       </c>
       <c r="T8">
-        <v>0.008917822270720159</v>
+        <v>0.0119254899635849</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>64.957491</v>
       </c>
       <c r="I9">
-        <v>0.4827767068068095</v>
+        <v>0.4263459959747078</v>
       </c>
       <c r="J9">
-        <v>0.4827767068068096</v>
+        <v>0.4263459959747078</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2118566666666667</v>
+        <v>0.2787996666666667</v>
       </c>
       <c r="N9">
-        <v>0.63557</v>
+        <v>0.8363990000000001</v>
       </c>
       <c r="O9">
-        <v>0.008313749013022724</v>
+        <v>0.009271512123137357</v>
       </c>
       <c r="P9">
-        <v>0.008313749013022724</v>
+        <v>0.009271512123137357</v>
       </c>
       <c r="Q9">
-        <v>4.58722583943</v>
+        <v>6.036708946101001</v>
       </c>
       <c r="R9">
-        <v>41.28503255487</v>
+        <v>54.33038051490901</v>
       </c>
       <c r="S9">
-        <v>0.004013684369725473</v>
+        <v>0.003952872070330574</v>
       </c>
       <c r="T9">
-        <v>0.004013684369725474</v>
+        <v>0.003952872070330574</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.305291666666667</v>
+        <v>5.091779333333333</v>
       </c>
       <c r="H10">
-        <v>6.915875</v>
+        <v>15.275338</v>
       </c>
       <c r="I10">
-        <v>0.05140012808049411</v>
+        <v>0.1002590939582365</v>
       </c>
       <c r="J10">
-        <v>0.05140012808049412</v>
+        <v>0.1002590939582365</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.616272333333333</v>
+        <v>13.76681233333333</v>
       </c>
       <c r="N10">
-        <v>28.848817</v>
+        <v>41.300437</v>
       </c>
       <c r="O10">
-        <v>0.3773649226058863</v>
+        <v>0.4578167864098003</v>
       </c>
       <c r="P10">
-        <v>0.3773649226058863</v>
+        <v>0.4578167864098004</v>
       </c>
       <c r="Q10">
-        <v>22.16831247443055</v>
+        <v>70.09757052474511</v>
       </c>
       <c r="R10">
-        <v>199.514812269875</v>
+        <v>630.878134722706</v>
       </c>
       <c r="S10">
-        <v>0.01939660535502831</v>
+        <v>0.04590029620431806</v>
       </c>
       <c r="T10">
-        <v>0.01939660535502831</v>
+        <v>0.04590029620431806</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.305291666666667</v>
+        <v>5.091779333333333</v>
       </c>
       <c r="H11">
-        <v>6.915875</v>
+        <v>15.275338</v>
       </c>
       <c r="I11">
-        <v>0.05140012808049411</v>
+        <v>0.1002590939582365</v>
       </c>
       <c r="J11">
-        <v>0.05140012808049412</v>
+        <v>0.1002590939582365</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>45.551531</v>
       </c>
       <c r="O11">
-        <v>0.5958493885691962</v>
+        <v>0.5049403118535137</v>
       </c>
       <c r="P11">
-        <v>0.5958493885691962</v>
+        <v>0.5049403118535138</v>
       </c>
       <c r="Q11">
-        <v>35.00318827273611</v>
+        <v>77.31278138249755</v>
       </c>
       <c r="R11">
-        <v>315.028694454625</v>
+        <v>695.8150324424779</v>
       </c>
       <c r="S11">
-        <v>0.03062673488914079</v>
+        <v>0.05062485816942267</v>
       </c>
       <c r="T11">
-        <v>0.03062673488914079</v>
+        <v>0.05062485816942267</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.305291666666667</v>
+        <v>5.091779333333333</v>
       </c>
       <c r="H12">
-        <v>6.915875</v>
+        <v>15.275338</v>
       </c>
       <c r="I12">
-        <v>0.05140012808049411</v>
+        <v>0.1002590939582365</v>
       </c>
       <c r="J12">
-        <v>0.05140012808049412</v>
+        <v>0.1002590939582365</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4707146666666667</v>
+        <v>0.8411156666666667</v>
       </c>
       <c r="N12">
-        <v>1.412144</v>
+        <v>2.523347</v>
       </c>
       <c r="O12">
-        <v>0.01847193981189478</v>
+        <v>0.02797138961354841</v>
       </c>
       <c r="P12">
-        <v>0.01847193981189478</v>
+        <v>0.02797138961354842</v>
       </c>
       <c r="Q12">
-        <v>1.085134598444444</v>
+        <v>4.282775368476222</v>
       </c>
       <c r="R12">
-        <v>9.766211386</v>
+        <v>38.54497831628601</v>
       </c>
       <c r="S12">
-        <v>0.0009494600722265698</v>
+        <v>0.00280438617940719</v>
       </c>
       <c r="T12">
-        <v>0.0009494600722265701</v>
+        <v>0.00280438617940719</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.305291666666667</v>
+        <v>5.091779333333333</v>
       </c>
       <c r="H13">
-        <v>6.915875</v>
+        <v>15.275338</v>
       </c>
       <c r="I13">
-        <v>0.05140012808049411</v>
+        <v>0.1002590939582365</v>
       </c>
       <c r="J13">
-        <v>0.05140012808049412</v>
+        <v>0.1002590939582365</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2118566666666667</v>
+        <v>0.2787996666666667</v>
       </c>
       <c r="N13">
-        <v>0.63557</v>
+        <v>0.8363990000000001</v>
       </c>
       <c r="O13">
-        <v>0.008313749013022724</v>
+        <v>0.009271512123137357</v>
       </c>
       <c r="P13">
-        <v>0.008313749013022724</v>
+        <v>0.009271512123137357</v>
       </c>
       <c r="Q13">
-        <v>0.4883914081944444</v>
+        <v>1.419586380873556</v>
       </c>
       <c r="R13">
-        <v>4.395522673749999</v>
+        <v>12.776277427862</v>
       </c>
       <c r="S13">
-        <v>0.0004273277640984495</v>
+        <v>0.0009295534050885569</v>
       </c>
       <c r="T13">
-        <v>0.0004273277640984496</v>
+        <v>0.0009295534050885567</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.007427333333333334</v>
+        <v>0.04006366666666666</v>
       </c>
       <c r="H14">
-        <v>0.022282</v>
+        <v>0.120191</v>
       </c>
       <c r="I14">
-        <v>0.0001656041576647308</v>
+        <v>0.0007888690097681898</v>
       </c>
       <c r="J14">
-        <v>0.0001656041576647308</v>
+        <v>0.0007888690097681897</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.616272333333333</v>
+        <v>13.76681233333333</v>
       </c>
       <c r="N14">
-        <v>28.848817</v>
+        <v>41.300437</v>
       </c>
       <c r="O14">
-        <v>0.3773649226058863</v>
+        <v>0.4578167864098003</v>
       </c>
       <c r="P14">
-        <v>0.3773649226058863</v>
+        <v>0.4578167864098004</v>
       </c>
       <c r="Q14">
-        <v>0.07142326004377778</v>
+        <v>0.5515489803852223</v>
       </c>
       <c r="R14">
-        <v>0.642809340394</v>
+        <v>4.963940823467</v>
       </c>
       <c r="S14">
-        <v>6.249320014036412E-05</v>
+        <v>0.0003611574749503541</v>
       </c>
       <c r="T14">
-        <v>6.249320014036412E-05</v>
+        <v>0.000361157474950354</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.007427333333333334</v>
+        <v>0.04006366666666666</v>
       </c>
       <c r="H15">
-        <v>0.022282</v>
+        <v>0.120191</v>
       </c>
       <c r="I15">
-        <v>0.0001656041576647308</v>
+        <v>0.0007888690097681898</v>
       </c>
       <c r="J15">
-        <v>0.0001656041576647308</v>
+        <v>0.0007888690097681897</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>45.551531</v>
       </c>
       <c r="O15">
-        <v>0.5958493885691962</v>
+        <v>0.5049403118535137</v>
       </c>
       <c r="P15">
-        <v>0.5958493885691962</v>
+        <v>0.5049403118535138</v>
       </c>
       <c r="Q15">
-        <v>0.1127754681935556</v>
+        <v>0.608320451380111</v>
       </c>
       <c r="R15">
-        <v>1.014979213742</v>
+        <v>5.474884062420999</v>
       </c>
       <c r="S15">
-        <v>9.867513608904659E-05</v>
+        <v>0.0003983317638039223</v>
       </c>
       <c r="T15">
-        <v>9.867513608904659E-05</v>
+        <v>0.0003983317638039224</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.007427333333333334</v>
+        <v>0.04006366666666666</v>
       </c>
       <c r="H16">
-        <v>0.022282</v>
+        <v>0.120191</v>
       </c>
       <c r="I16">
-        <v>0.0001656041576647308</v>
+        <v>0.0007888690097681898</v>
       </c>
       <c r="J16">
-        <v>0.0001656041576647308</v>
+        <v>0.0007888690097681897</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4707146666666667</v>
+        <v>0.8411156666666667</v>
       </c>
       <c r="N16">
-        <v>1.412144</v>
+        <v>2.523347</v>
       </c>
       <c r="O16">
-        <v>0.01847193981189478</v>
+        <v>0.02797138961354841</v>
       </c>
       <c r="P16">
-        <v>0.01847193981189478</v>
+        <v>0.02797138961354842</v>
       </c>
       <c r="Q16">
-        <v>0.003496154734222223</v>
+        <v>0.03369817769744445</v>
       </c>
       <c r="R16">
-        <v>0.031465392608</v>
+        <v>0.303283599277</v>
       </c>
       <c r="S16">
-        <v>3.05903003298244E-06</v>
+        <v>2.206576242628017E-05</v>
       </c>
       <c r="T16">
-        <v>3.05903003298244E-06</v>
+        <v>2.206576242628017E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.007427333333333334</v>
+        <v>0.04006366666666666</v>
       </c>
       <c r="H17">
-        <v>0.022282</v>
+        <v>0.120191</v>
       </c>
       <c r="I17">
-        <v>0.0001656041576647308</v>
+        <v>0.0007888690097681898</v>
       </c>
       <c r="J17">
-        <v>0.0001656041576647308</v>
+        <v>0.0007888690097681897</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.2118566666666667</v>
+        <v>0.2787996666666667</v>
       </c>
       <c r="N17">
-        <v>0.63557</v>
+        <v>0.8363990000000001</v>
       </c>
       <c r="O17">
-        <v>0.008313749013022724</v>
+        <v>0.009271512123137357</v>
       </c>
       <c r="P17">
-        <v>0.008313749013022724</v>
+        <v>0.009271512123137357</v>
       </c>
       <c r="Q17">
-        <v>0.001573530082222222</v>
+        <v>0.01116973691211111</v>
       </c>
       <c r="R17">
-        <v>0.01416177074</v>
+        <v>0.100527632209</v>
       </c>
       <c r="S17">
-        <v>1.376791402337615E-06</v>
+        <v>7.314008587633134E-06</v>
       </c>
       <c r="T17">
-        <v>1.376791402337615E-06</v>
+        <v>7.314008587633133E-06</v>
       </c>
     </row>
   </sheetData>
